--- a/FME_fmw_files/LOOKUP_TABLES/ProgressStatusAttributeMapper.xlsx
+++ b/FME_fmw_files/LOOKUP_TABLES/ProgressStatusAttributeMapper.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
